--- a/pred_ohlcv/54_21/2020-01-16 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 MIX ohlcv.xlsx
@@ -2368,7 +2368,7 @@
         <v>-1783476.281783373</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3852716.786467866</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3852716.786467866</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-8870817.543867867</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-8870817.543867867</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-8870817.543867867</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-8869893.161467867</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-8869893.161467867</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-8776910.153967867</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-8776910.153967867</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-7805681.898389613</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-8221004.627838605</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-8221004.627838605</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-8222023.527938605</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-8337940.339638606</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-8304755.853938606</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-8278721.585738606</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-9292981.193162471</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-9477480.908462472</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-9485480.908462472</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-9465660.580262473</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-8966798.862410203</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-9228295.492810201</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9396977.567510201</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-11696924.38254794</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-11696383.69884793</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-11971306.52563042</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-11923570.82563042</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-11980568.07113042</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-11978650.87833042</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-11976832.87833042</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-12034954.85143042</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-12073372.54143042</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-12061370.68543042</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-12060162.79043042</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-12070162.79043042</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-12166473.32313042</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-11265891.53613042</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-11289332.98953042</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-11270413.68953042</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-11270413.68953042</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-11270413.68953042</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-11262977.66083042</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-11262977.66083042</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-11261840.78683042</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-11261840.78683042</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-11669256.41473042</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-11682316.62433042</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-11682316.62433042</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-11671073.49543042</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-11650033.49543042</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-11506111.53703042</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>1057889.620707792</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>758372.2129077921</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>704426.7481077921</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>715702.7781077921</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>715702.7781077921</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>697281.2583077921</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>755473.876707792</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>930529.3333077921</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>344241.3096077921</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>321324.4286077921</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>320324.4286077921</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-186581.1697922079</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1196878.553292208</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 MIX ohlcv.xlsx
@@ -2368,7 +2368,7 @@
         <v>-1783476.281783373</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3852716.786467866</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3852716.786467866</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-8221004.627838605</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-8221004.627838605</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-8222023.527938605</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-8337940.339638606</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-8304755.853938606</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-8278721.585738606</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-8278721.585738606</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-8817948.231038606</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-9292981.193162471</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-9477480.908462472</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-9485480.908462472</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-9465660.580262473</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-8966798.862410203</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9396977.567510201</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-10801923.17497177</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-10810013.92057177</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-10810013.92057177</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-10762932.80707177</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-10773968.05537177</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-10752560.91037177</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-10750876.97254794</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-10750876.97254794</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-10732728.16474794</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-10732728.16474794</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-10958148.87024794</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-10874791.72174794</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-10874791.72174794</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-10857259.52194794</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-10543949.33854794</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-10552403.42644794</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-10552038.08214794</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-10571396.57934794</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-10550433.58204794</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-10550433.58204794</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-10550433.58204794</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-10628475.36534794</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-10236475.36534794</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-10190475.36534794</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-10259733.15074794</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-10901155.02574794</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-10936385.02574794</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-10936385.02574794</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-11434774.42504794</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-11401011.65284794</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-11701011.65284794</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-11696924.38254794</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-11696383.69884793</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-11719263.69884793</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-11719063.69884793</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-11991270.18494793</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-11669256.41473042</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-11682316.62433042</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-11682316.62433042</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-11671073.49543042</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-11650033.49543042</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-11390974.35633042</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-11582571.53733042</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-11389055.87473042</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-11660430.94973042</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-11557410.83533042</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-11557410.83533042</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-11557410.83533042</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-11557410.83533042</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-11604301.78403042</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-11592121.78403042</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-11698559.67333042</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-11944229.69833042</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-11912278.04483042</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-11674399.92530609</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-11674219.30690609</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-11674219.30690609</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-11674219.30690609</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-11679219.30690609</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-11679038.49670609</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-11679462.37520609</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-11660107.93602361</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-11660107.93602361</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-11660107.93602361</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-11660107.93602361</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-12055869.87964112</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-12055463.34564112</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-12186064.21414112</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-12196669.74314112</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-11797634.81444112</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-11797456.11954112</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-11682007.95814112</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-11681818.41454112</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-11681818.41454112</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-11681818.41454112</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-11531917.57754112</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-11520338.21304112</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-11505423.92284112</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-11501521.32514112</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-11478809.86962745</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-11478809.86962745</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-11475427.01014112</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-11334505.68964112</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-11316346.23354112</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-11298647.54414112</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-11284929.16884112</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-11266333.99824112</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-9851825.666241121</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-9846207.141841121</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-9326738.776441121</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-8865142.835934756</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-8865142.835934756</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>1057889.620707792</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>758372.2129077921</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>704426.7481077921</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>715702.7781077921</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>715702.7781077921</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>697281.2583077921</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>930529.3333077921</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>344241.3096077921</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>321324.4286077921</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>320324.4286077921</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>293722.2474077921</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
